--- a/repositories/FITS/notebooks/01.metrics.xlsx
+++ b/repositories/FITS/notebooks/01.metrics.xlsx
@@ -11,6 +11,7 @@
     <sheet name="ETTh2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ETTm1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="ETTm2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Weather" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1067,7 +1068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,6 +1156,333 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FITS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>192</v>
+      </c>
+      <c r="C3" t="n">
+        <v>700</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.217</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.291</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.466</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.187</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FITS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>336</v>
+      </c>
+      <c r="C4" t="n">
+        <v>700</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.269</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.326</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.519</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.286</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FITS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>720</v>
+      </c>
+      <c r="C5" t="n">
+        <v>700</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.348</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.377</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.590</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.439</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3.000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pred_len</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>seq_len</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mse-str</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mae-str</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rmse-str</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mape-str</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>num_exp-str</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FITS</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>96</v>
+      </c>
+      <c r="C2" t="n">
+        <v>720</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.171</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.225</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.413</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.994</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FITS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>192</v>
+      </c>
+      <c r="C3" t="n">
+        <v>720</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.214</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.261</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.463</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.370</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FITS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>336</v>
+      </c>
+      <c r="C4" t="n">
+        <v>720</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.260</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.296</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.510</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13.712</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FITS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>720</v>
+      </c>
+      <c r="C5" t="n">
+        <v>720</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.318</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.338</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.564</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>13.916</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3.000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
